--- a/GLMv21518.1120am.xlsx
+++ b/GLMv21518.1120am.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="125">
   <si>
     <t>Is CIS</t>
   </si>
@@ -412,7 +412,10 @@
     <t xml:space="preserve">Scheduled Sections </t>
   </si>
   <si>
-    <t>Remaining Sections</t>
+    <t>Sections Possible</t>
+  </si>
+  <si>
+    <t>Scheduled Sections</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$T$2" fmlaRange="$I$2:$I$33" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$T$2" fmlaRange="$I$2:$I$33" noThreeD="1" sel="5" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,12 +1442,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="C1:Y65"/>
+  <dimension ref="C1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2:Y4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1470,10 +1473,11 @@
     <col min="22" max="22" width="22.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" s="27" customFormat="1">
+    <row r="1" spans="3:26" s="27" customFormat="1">
       <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1533,10 +1537,13 @@
         <v>17</v>
       </c>
       <c r="Y1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="3:25" ht="16">
+    <row r="2" spans="3:26" ht="16">
       <c r="C2" s="18">
         <v>1</v>
       </c>
@@ -1584,7 +1591,7 @@
       </c>
       <c r="R2" s="1"/>
       <c r="T2" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U2" s="18">
         <v>12</v>
@@ -1601,7 +1608,7 @@
       </c>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="3:25" ht="16">
+    <row r="3" spans="3:26" ht="16">
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -1650,7 +1657,7 @@
       <c r="R3" s="1"/>
       <c r="T3" s="18" t="str">
         <f>IF(T2=1,"Akram Ahmed",IF(T2=2,"Andrea Jones",IF(T2=3,"Anne Pugliese",IF(T2=4,"Anstasia Biggs",IF(T2=5,"Bill Schiano",IF(T2=6,"Bill Vanderclock",IF(T2=7,"Charles Wright",IF(T2=8,"Daniel Sheehan",IF(T2=9,"David Rude",IF(T2=10,"David Yates",IF(T2=11,"Donald Aucoin",IF(T2=12, "Elizabeth McCarron",IF(T2=13,"Gaurav Shah",IF(T2=14,"Heikki Topi",IF(T2=15, "James Pape",IF(T2=16,"Jay Cooprider", IF(T2=17, "Jennifer Xu", IF(T2=18,"Joed Graf", IF(T2=19,"Joseph Nezuh",IF(T2=20,"Les Waguespack",IF(T2=21,"Mark Frydenberg",IF(T2=22,"Matthew Macarty",IF(T2=23, "Michael Banks",IF(T2=24,"Mimoza Dimodugno",IF(T2=25,"Monica Garfield",IF(T2=26, "Robert Stubbs", IF(T2=27, "Stephen Tracy", IF(T2=28,"Tamara Babaian",IF(T2=29, "Trish Rice",IF(T2=30,"Vatche Ishakian",IF(T2=31,"Wendy Lucas",IF(T2=32,"Xinru Page",))))))))))))))))))))))))))))))))</f>
-        <v>Akram Ahmed</v>
+        <v>Bill Schiano</v>
       </c>
       <c r="U3" s="18" t="str">
         <f>IF(U2=1,"IT 101",IF(U2=2,"CS 150",IF(U2=3,"CS 180",IF(U2=4,"CS 213",IF(U2=5,"CS 240",IF(U2=6,"CS 299",IF(U2=7,"CS 350",IF(U2=8,"CS 360",IF(U2=9,"CS 460",IF(U2=10,"CS 480",IF(U2=11,"CS 603",IF(U2=12, "CS 605",IF(U2=13,"CS 607",IF(U2=14,"CS 610",IF(U2=15, "CS 620",IF(U2=16,"CS 630", IF(U2=17, "CS 650", IF(U2=18,"CS 680",))))))))))))))))))</f>
@@ -1667,10 +1674,14 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18">
         <f>IF(T2=1,H2,IF(T2=2,H3,IF(T2=3,H4,IF(T2=4,H5,IF(T2=5,H6,IF(T2=6,H7,IF(T2=7,H8,IF(T2=8,H9,IF(T2=9,H10,IF(T2=10,H11,IF(T2=11,H12,IF(T2=12, H13,IF(T2=13,H14,IF(T2=14,H15,IF(T2=15, H16,IF(T2=16,H17, IF(T2=17, H18, IF(T2=18,H19, IF(T2=19,H20,IF(T2=20,H21,IF(T2=21,H22,IF(T2=22,H23,IF(T2=23, H24,IF(T2=24,H25,IF(T2=25,H26,IF(T2=26, H27, IF(T2=27, H28, IF(T2=28,H29,IF(T2=29, H30,IF(T2=30,H31,IF(T2=31,H32,IF(T2=32,H33,))))))))))))))))))))))))))))))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" ht="16">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="18">
+        <f>IF(T2=1,G2,IF(T2=2,G3,IF(T2=3,G4,IF(T2=4,G5,IF(T2=5,G6,IF(T2=6,G7,IF(T2=7,G8,IF(T2=8,G9,IF(T2=9,G10,IF(T2=10,G11,IF(T2=11,G12,IF(T2=12, G13,IF(T2=13,G14,IF(T2=14,G15,IF(T2=15, G16,IF(T2=16,G17, IF(T2=17, G18, IF(T2=18,G19, IF(T2=19,G20,IF(T2=20,G21,IF(T2=21,G22,IF(T2=22,G23,IF(T2=23, G24,IF(T2=24,G25,IF(T2=25,G26,IF(T2=26, G27, IF(T2=27, G28, IF(T2=28,G29,IF(T2=29, G30,IF(T2=30,G31,IF(T2=31,G32,IF(T2=32,G33,))))))))))))))))))))))))))))))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" ht="16">
       <c r="C4" s="18">
         <v>1</v>
       </c>
@@ -1734,7 +1745,7 @@
       </c>
       <c r="Y4" s="18"/>
     </row>
-    <row r="5" spans="3:25" ht="16">
+    <row r="5" spans="3:26" ht="16">
       <c r="C5" s="18">
         <v>1</v>
       </c>
@@ -1782,7 +1793,7 @@
       </c>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:25" ht="16">
+    <row r="6" spans="3:26" ht="16">
       <c r="C6" s="18">
         <v>1</v>
       </c>
@@ -1801,7 +1812,7 @@
       </c>
       <c r="H6" s="18">
         <f>COUNTIF(P22:P65,I6)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>43</v>
@@ -1830,7 +1841,7 @@
       </c>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="3:25" ht="16">
+    <row r="7" spans="3:26" ht="16">
       <c r="C7" s="18">
         <v>1</v>
       </c>
@@ -1878,7 +1889,7 @@
       </c>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="3:25" ht="16">
+    <row r="8" spans="3:26" ht="16">
       <c r="C8" s="18">
         <v>1</v>
       </c>
@@ -1926,7 +1937,7 @@
       </c>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="3:25" ht="16">
+    <row r="9" spans="3:26" ht="16">
       <c r="C9" s="18">
         <v>1</v>
       </c>
@@ -1974,7 +1985,7 @@
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="3:25" ht="16">
+    <row r="10" spans="3:26" ht="16">
       <c r="C10" s="18">
         <v>1</v>
       </c>
@@ -2008,7 +2019,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="3:25" ht="17" thickBot="1">
+    <row r="11" spans="3:26" ht="17" thickBot="1">
       <c r="C11" s="18">
         <v>1</v>
       </c>
@@ -2041,7 +2052,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="3:25" ht="16">
+    <row r="12" spans="3:26" ht="16">
       <c r="C12" s="18">
         <v>1</v>
       </c>
@@ -2086,7 +2097,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="3:25" ht="16">
+    <row r="13" spans="3:26" ht="16">
       <c r="C13" s="18">
         <v>1</v>
       </c>
@@ -2139,7 +2150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="3:25" ht="16">
+    <row r="14" spans="3:26" ht="16">
       <c r="C14" s="18">
         <v>1</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="3:25" ht="17" thickBot="1">
+    <row r="15" spans="3:26" ht="17" thickBot="1">
       <c r="C15" s="18">
         <v>1</v>
       </c>
@@ -2242,7 +2253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="3:25" ht="16">
+    <row r="16" spans="3:26" ht="16">
       <c r="C16" s="18">
         <v>1</v>
       </c>
@@ -2720,16 +2731,33 @@
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="1"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="7"/>
+      <c r="P25" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>12</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>10</v>
+      </c>
+      <c r="Y25">
+        <v>160</v>
+      </c>
     </row>
     <row r="26" spans="3:25" ht="16">
       <c r="C26" s="18">
@@ -2761,16 +2789,34 @@
       <c r="N26" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+      <c r="P26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="6">
+        <v>0</v>
+      </c>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="7"/>
+      <c r="U26" s="6">
+        <v>5</v>
+      </c>
+      <c r="V26" s="6">
+        <v>12</v>
+      </c>
+      <c r="W26" s="6">
+        <v>4</v>
+      </c>
+      <c r="X26" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="7">
+        <v>160</v>
+      </c>
     </row>
     <row r="27" spans="3:25" ht="16">
       <c r="C27" s="18">
@@ -2799,16 +2845,34 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="1"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
+      <c r="P27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0</v>
+      </c>
       <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="7"/>
+      <c r="U27" s="6">
+        <v>5</v>
+      </c>
+      <c r="V27" s="6">
+        <v>12</v>
+      </c>
+      <c r="W27" s="6">
+        <v>4</v>
+      </c>
+      <c r="X27" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y27" s="7">
+        <v>160</v>
+      </c>
     </row>
     <row r="28" spans="3:25" ht="16">
       <c r="C28" s="18">
